--- a/data/income_statement/2digits/size/77_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/77_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>77-Rental and leasing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>77-Rental and leasing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,662 +841,747 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>441562.1645</v>
+        <v>460007.59549</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>398877.6291200001</v>
+        <v>415483.4964</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>560676.47757</v>
+        <v>575606.26573</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>696850.9071699999</v>
+        <v>752245.46776</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1004635.33966</v>
+        <v>1058663.76669</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1139426.00408</v>
+        <v>1292052.65219</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1375431.94687</v>
+        <v>1577585.47334</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1578066.34814</v>
+        <v>1811862.77567</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1838887.38496</v>
+        <v>2170151.20931</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3016046.30017</v>
+        <v>3224288.76186</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4069548.12551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4498484.34576</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5090817.52</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>399315.83417</v>
+        <v>417067.83122</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>365903.87863</v>
+        <v>376061.01198</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>507995.7858900001</v>
+        <v>518751.1134</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>649428.63341</v>
+        <v>696787.7986</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>919021.1660900001</v>
+        <v>969376.4782</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1072514.01349</v>
+        <v>1201641.77234</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1275115.84511</v>
+        <v>1450748.00295</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1477911.84859</v>
+        <v>1682820.68954</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1675132.76725</v>
+        <v>1947856.18701</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2603878.51799</v>
+        <v>2767148.75715</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3609583.80763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3933962.79976</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4623839.459</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15612.68487</v>
+        <v>15892.70985</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10157.87732</v>
+        <v>15501.37987</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24839.44313</v>
+        <v>28208.25821</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>19789.25741000001</v>
+        <v>26943.23904</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>40150.92402000001</v>
+        <v>45050.33743</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>25818.21741</v>
+        <v>35006.31232</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>44757.25203</v>
+        <v>57046.63897</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>31658.78335</v>
+        <v>40700.05493</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>103594.44586</v>
+        <v>124215.1532</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>262966.38249</v>
+        <v>298758.04906</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>296225.11644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>367438.48943</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>258954.886</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>26633.64546</v>
+        <v>27047.05442</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>22815.87317</v>
+        <v>23921.10455</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>27841.24855</v>
+        <v>28646.89412</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>27633.01635</v>
+        <v>28514.43012</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>45463.24955</v>
+        <v>44236.95105999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>41093.77318</v>
+        <v>55404.56753</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>55558.84973</v>
+        <v>69790.83142</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>68495.7162</v>
+        <v>88342.0312</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>60160.17185</v>
+        <v>98079.8691</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>149201.39969</v>
+        <v>158381.95565</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>163739.20144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>197083.05657</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>208023.175</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4869.020560000001</v>
+        <v>5021.817929999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1911.27368</v>
+        <v>3824.66191</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2836.08336</v>
+        <v>2456.91997</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2682.31642</v>
+        <v>2281.5544</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6406.07926</v>
+        <v>6361.96606</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4540.31673</v>
+        <v>5206.417949999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9689.51967</v>
+        <v>14887.46998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6065.8905</v>
+        <v>9164.025250000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9082.177810000001</v>
+        <v>12179.94135</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>29136.69923</v>
+        <v>36995.91812</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>27136.3915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>38470.29182</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>49436.899</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3277.30183</v>
+        <v>3319.99462</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1622.75646</v>
+        <v>3511.47164</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2633.69861</v>
+        <v>2130.19889</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2079.50735</v>
+        <v>1664.5355</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5908.990870000001</v>
+        <v>5759.48468</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3924.31683</v>
+        <v>4541.25868</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9169.825000000001</v>
+        <v>10881.9368</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5327.59486</v>
+        <v>7161.85269</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8200.350549999999</v>
+        <v>11062.48663</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>24564.80854</v>
+        <v>28120.16369</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>19250.98586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24935.8473</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>45062.819</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>73.90322999999999</v>
+        <v>185.0701</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>230.11634</v>
+        <v>263.33985</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>195.68853</v>
+        <v>311.4233</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>229.4747</v>
+        <v>238.39304</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>402.4163699999999</v>
+        <v>396.72324</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>259.93893</v>
+        <v>230.98688</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>275.91007</v>
+        <v>3767.9555</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>669.15747</v>
+        <v>1899.64821</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>783.19523</v>
+        <v>961.0882800000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4024.71093</v>
+        <v>4164.84981</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5903.349089999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6394.79426</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3531.006</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1517.8155</v>
+        <v>1516.75321</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>58.40088</v>
+        <v>49.85042</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>6.696219999999999</v>
+        <v>15.29778</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>373.33437</v>
+        <v>378.62586</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>94.67201999999999</v>
+        <v>205.75814</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>356.0609700000001</v>
+        <v>434.17239</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>243.7846</v>
+        <v>237.57768</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>69.13817</v>
+        <v>102.52435</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>98.63203</v>
+        <v>156.36644</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>547.17976</v>
+        <v>4710.90462</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1982.05655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7139.650259999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>843.074</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>436693.14394</v>
+        <v>454985.77756</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>396966.35544</v>
+        <v>411658.83449</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>557840.3942100001</v>
+        <v>573149.3457599999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>694168.59075</v>
+        <v>749963.91336</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>998229.2604000001</v>
+        <v>1052301.80063</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1134885.68735</v>
+        <v>1286846.23424</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1365742.4272</v>
+        <v>1562698.00336</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1572000.45764</v>
+        <v>1802698.75042</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1829805.20715</v>
+        <v>2157971.26796</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2986909.60094</v>
+        <v>3187292.84374</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4042411.73401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4460014.053940001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5041380.621</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>329146.86258</v>
+        <v>342298.11216</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>285622.86194</v>
+        <v>304173.9507100001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>426538.42233</v>
+        <v>445769.39039</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>544338.0638100001</v>
+        <v>599327.3944499999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>784687.12041</v>
+        <v>838028.1775700001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>919959.99813</v>
+        <v>1028965.3473</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1119391.78496</v>
+        <v>1288280.76119</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1296702.30674</v>
+        <v>1462015.55216</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1510087.82962</v>
+        <v>1803743.53935</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2449277.26902</v>
+        <v>2592426.5625</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3501611.13918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3817128.14598</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4371806.431</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5868.71931</v>
+        <v>5527.10943</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5898.76307</v>
+        <v>6100.70191</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>20481.97531</v>
+        <v>18886.53297</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22154.60701</v>
+        <v>19523.46551</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>15107.50071</v>
+        <v>14125.45841</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>12780.2617</v>
+        <v>17548.84865</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>22841.62236</v>
+        <v>29038.698</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>31185.34738</v>
+        <v>41290.86615</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>31438.26815</v>
+        <v>36568.96263999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>40090.22832</v>
+        <v>34400.46409</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>66528.15862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>74929.69603000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>57639.173</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>73922.74134000001</v>
+        <v>75577.57012999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>66358.87839</v>
+        <v>63427.17479</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>123026.83566</v>
+        <v>123699.17054</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>187262.91764</v>
+        <v>202194.18455</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>247218.34227</v>
+        <v>250143.03387</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>341817.79502</v>
+        <v>339135.05511</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>405836.33506</v>
+        <v>420765.26435</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>497142.4082299999</v>
+        <v>519544.52204</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>661681.8451299999</v>
+        <v>710327.18832</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>856584.8016600001</v>
+        <v>870636.5761000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1586251.94962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1616763.69241</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2191832.301</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>246327.52572</v>
+        <v>258011.19212</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>207880.58294</v>
+        <v>228936.73989</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>280626.44454</v>
+        <v>301193.68489</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>326845.41888</v>
+        <v>365169.40405</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>511411.603</v>
+        <v>563034.8052599999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>549955.9963100001</v>
+        <v>658958.64222</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>663847.82684</v>
+        <v>812445.67985</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>705363.78058</v>
+        <v>836124.3183099999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>770670.6104</v>
+        <v>998926.8685499999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1448649.44043</v>
+        <v>1591116.42668</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1754267.50676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1989255.26765</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1926716.081</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3027.87621</v>
+        <v>3182.24048</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5484.63754</v>
+        <v>5709.33412</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2403.16682</v>
+        <v>1990.00199</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8075.12028</v>
+        <v>12440.34034</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>10949.67443</v>
+        <v>10724.88003</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15405.9451</v>
+        <v>13322.80132</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>26866.0007</v>
+        <v>26031.11899</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>63010.77054999999</v>
+        <v>65055.84566000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>46297.10593999999</v>
+        <v>57920.51984</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>103952.79861</v>
+        <v>96273.09563</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>94563.52417999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>136179.48989</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>195618.876</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>107546.28136</v>
+        <v>112687.6654</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>111343.4935</v>
+        <v>107484.88378</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>131301.97188</v>
+        <v>127379.95537</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>149830.52694</v>
+        <v>150636.51891</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>213542.13999</v>
+        <v>214273.62306</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>214925.68922</v>
+        <v>257880.88694</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>246350.64224</v>
+        <v>274417.24217</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>275298.1508999999</v>
+        <v>340683.19826</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>319717.37753</v>
+        <v>354227.72861</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>537632.3319199999</v>
+        <v>594866.28124</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>540800.59483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>642885.90796</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>669574.1899999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>91512.23517999999</v>
+        <v>89744.28164</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>101298.38014</v>
+        <v>112210.26323</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>119442.2953</v>
+        <v>119781.01535</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>140773.16188</v>
+        <v>147684.67243</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>181700.90715</v>
+        <v>183150.96927</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>210605.75418</v>
+        <v>240101.06374</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>228063.8212</v>
+        <v>257653.84914</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>268546.83821</v>
+        <v>309915.79612</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>304735.1731</v>
+        <v>311825.94073</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>477022.5130200001</v>
+        <v>506398.63397</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>560320.1229699999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>579591.92901</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>606984.036</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>162.96743</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>71.81883000000001</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>8.6241</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>64.76707</v>
+        <v>9.96346</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>844.52746</v>
+        <v>853.9465499999999</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>2672.09362</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1510.43576</v>
+        <v>1490.29535</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>326.6803399999999</v>
+        <v>297.0298</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>842.68613</v>
@@ -1606,218 +1592,248 @@
       <c r="M21" s="48" t="n">
         <v>883.5058100000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17463.90608</v>
+        <v>17351.93246</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>18305.44486</v>
+        <v>23335.41164</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>21815.59442</v>
+        <v>26199.29743</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>28257.45551</v>
+        <v>34970.25055999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25082.05321</v>
+        <v>27448.60927</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>34826.7967</v>
+        <v>39888.79667</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>36290.67652</v>
+        <v>41453.3476</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>45070.16375</v>
+        <v>46701.08974</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>52222.53893</v>
+        <v>59935.88815</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>73765.53952999999</v>
+        <v>109344.43845</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>123304.29511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>123613.71862</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>143819.507</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>73885.36167</v>
+        <v>72229.38175</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>82921.11645</v>
+        <v>88874.85158999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>97618.07678</v>
+        <v>93573.09381999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>112450.9393</v>
+        <v>112704.45841</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>155774.32648</v>
+        <v>154848.41345</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>173106.86386</v>
+        <v>197540.17345</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>190262.70892</v>
+        <v>214710.20619</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>223149.99412</v>
+        <v>262917.67658</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>251669.94804</v>
+        <v>251047.36645</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>402218.41388</v>
+        <v>396015.63591</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>436132.32205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>455094.70458</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>463164.529</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16034.04618</v>
+        <v>22943.38376</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10045.11336</v>
+        <v>-4725.379449999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>11859.67658</v>
+        <v>7598.940020000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>9057.36506</v>
+        <v>2951.846479999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>31841.23284</v>
+        <v>31122.65379</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4319.935040000001</v>
+        <v>17779.8232</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>18286.82104</v>
+        <v>16763.39303</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6751.312690000001</v>
+        <v>30767.40214</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>14982.20443</v>
+        <v>42401.78788</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>60609.81890000001</v>
+        <v>88467.64727</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-19519.52814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>63293.97895</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>62590.154</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11403.66236</v>
+        <v>45063.45908</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>15638.39902</v>
+        <v>35719.56683</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14176.25436</v>
+        <v>33549.59867</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>13107.70296</v>
+        <v>31209.20627</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>27043.44127</v>
+        <v>43054.71242</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>31867.87888</v>
+        <v>69410.25795999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>47275.35025999999</v>
+        <v>68834.04768999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>44108.89053</v>
+        <v>70615.13386</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>45653.8078</v>
+        <v>85628.97162000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>181344.2512</v>
+        <v>638625.17425</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>135091.32935</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>236824.96775</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>303374.321</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2.65041</v>
+        <v>24074.62419</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>13.72803</v>
+        <v>5763.74473</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>27.03533</v>
+        <v>619.87355</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>730.57293</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1140.13606</v>
+        <v>119.8692</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1187.424</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>12.20005</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>47.05767</v>
+        <v>10.68422</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>251.34124</v>
+        <v>40.01915</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4974.30507</v>
+        <v>2647.4155</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3714.39718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1339.14714</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>647.3819999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>3.74529</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>2210.7973</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>607.97561</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>653.51501</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>7.6094</v>
@@ -1829,10 +1845,10 @@
         <v>123.44484</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>44.38962</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>120.52224</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>2.7306</v>
@@ -1840,254 +1856,289 @@
       <c r="M27" s="48" t="n">
         <v>182.14416</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4.652</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1539.16372</v>
+        <v>8588.167100000002</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>634.86307</v>
+        <v>5624.98224</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>940.9036600000001</v>
+        <v>6057.743909999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>952.9885700000001</v>
+        <v>1633.94105</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1707.63912</v>
+        <v>1814.66726</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2523.88472</v>
+        <v>2325.13435</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3126.90743</v>
+        <v>2962.53791</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2967.53475</v>
+        <v>5229.905150000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4664.56525</v>
+        <v>4897.837519999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8774.173359999999</v>
+        <v>22075.32192</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>12947.53617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>15233.99561</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>49689.759</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>28.32212</v>
+        <v>13.0019</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>553.30082</v>
+        <v>494.57387</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>114.31625</v>
+        <v>24.00474</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>79.76295</v>
+        <v>192.61521</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>164.76818</v>
+        <v>78.18121999999998</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>909.33653</v>
+        <v>579.31575</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>341.42804</v>
+        <v>243.8451</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>651.4839899999999</v>
+        <v>294.18029</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1011.60288</v>
+        <v>693.62186</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>194.32636</v>
+        <v>193.1223</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>294.2071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>294.77259</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>156.707</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>272.88609</v>
+        <v>269.17209</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>229.85279</v>
+        <v>200.7096</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>179.18185</v>
+        <v>211.16752</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>106.2811</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>156.31349</v>
+        <v>291.36375</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>355.39611</v>
+        <v>568.69749</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>196.57199</v>
+        <v>541.9563499999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>212.39104</v>
+        <v>486.29108</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2105.35207</v>
+        <v>1113.2879</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1364.01377</v>
+        <v>3316.01335</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1104.87885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2795.03998</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4855.404</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>61.80644</v>
+        <v>57.9744</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>147.52709</v>
+        <v>145.79026</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>43.80687</v>
+        <v>12.76203</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>78.20506</v>
+        <v>120.2829</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>105.10331</v>
+        <v>85.87139000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>209.13134</v>
+        <v>4971.26987</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>137.2448</v>
+        <v>141.26961</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>129.14688</v>
+        <v>472.03275</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>616.1506200000001</v>
+        <v>9899.718889999998</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>701.1488099999999</v>
+        <v>18022.84194</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>335.17042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>761.66985</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>414.983</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3326.41113</v>
+        <v>5617.53792</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3789.49661</v>
+        <v>14723.51651</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3634.56479</v>
+        <v>18185.21405</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2186.40209</v>
+        <v>15005.16862</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7241.03548</v>
+        <v>24535.20105</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5685.80975</v>
+        <v>29132.03092</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>10302.15836</v>
+        <v>24395.39246</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9195.183660000001</v>
+        <v>25166.78099</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8136.95319</v>
+        <v>25951.08033</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>80228.36497999998</v>
+        <v>482710.50732</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>29072.69456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>120006.78674</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>147664.943</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>171.41372</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>342.27712</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4.93023</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>8.950340000000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>389.97788</v>
+        <v>389.06838</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>285.20015</v>
+        <v>0.28944</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>7.01534</v>
+        <v>14.65985</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>19.0263</v>
+        <v>79.81914</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>80.41923</v>
+        <v>43.84454</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>20.54395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>14.32113</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>3.373</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>7.70556</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>292.07926</v>
+        <v>273.27684</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>24.83081</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>67.43492000000001</v>
@@ -2096,268 +2147,303 @@
         <v>153.32182</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>49.24799</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>176.96226</v>
+        <v>3</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>81.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>54.65946000000001</v>
+        <v>6.37984</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>33.2182</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>25.02337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6164.716890000001</v>
+        <v>6439.23619</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7595.340330000001</v>
+        <v>6282.175480000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>8869.337680000002</v>
+        <v>7830.85726</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8901.125110000001</v>
+        <v>13429.96746</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16358.56407</v>
+        <v>15959.67699</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20557.67056</v>
+        <v>31444.7412</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>32573.23234</v>
+        <v>40410.11193</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>30817.5372</v>
+        <v>38896.20991</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>28794.15679</v>
+        <v>42826.68475</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>84991.55081999999</v>
+        <v>109613.37678</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>87394.73359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>96197.09054999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>99937.118</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>8801.292390000001</v>
+        <v>15784.52591</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>8135.64437</v>
+        <v>18422.8175</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10697.41494</v>
+        <v>30505.26176</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7077.074959999999</v>
+        <v>27598.95345</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>24820.90046</v>
+        <v>49571.49258000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>17619.6471</v>
+        <v>58836.31299</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>34910.04798</v>
+        <v>73839.26395000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26903.47218</v>
+        <v>57928.98869999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>24014.7059</v>
+        <v>56523.44286</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>123945.04301</v>
+        <v>437959.86348</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>106288.48866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>196178.4363</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>259784.863</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>922.7692</v>
+        <v>1066.17343</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1099.84993</v>
+        <v>1154.4203</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>247.90041</v>
+        <v>376.34799</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>320.76265</v>
+        <v>773.67923</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>607.79921</v>
+        <v>612.2739799999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>617.56759</v>
+        <v>542.86493</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>349.58436</v>
+        <v>379.51693</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>638.4770100000001</v>
+        <v>777.0863499999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2042.99439</v>
+        <v>2710.86477</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5329.12539</v>
+        <v>9178.754640000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8611.310939999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>17418.68659</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11546.651</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1364.58164</v>
+        <v>2363.21273</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>417.06676</v>
+        <v>710.7944299999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>180.86269</v>
+        <v>425.50832</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>737.72765</v>
+        <v>3374.04174</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1678.42774</v>
+        <v>4621.72403</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1798.02164</v>
+        <v>2458.7015</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3870.19538</v>
+        <v>4941.252930000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1436.20996</v>
+        <v>4935.982260000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2184.76258</v>
+        <v>3026.45244</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6282.620089999999</v>
+        <v>13340.29997</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3933.261019999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>17460.7524</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5521.718</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2.26621</v>
+        <v>47.92554</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0.7876299999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>531.65813</v>
+        <v>4.918939999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>25.26984</v>
+        <v>66.19853999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>165.2151</v>
+        <v>172.39919</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>27.00604</v>
+        <v>16.85943</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>29.17784</v>
+        <v>16.84808</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2.56</v>
+        <v>829.09406</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>23.97153</v>
+        <v>53.64205</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>93.57047</v>
+        <v>20.79141</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>22.18259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>579.8469699999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4309.635929999999</v>
+        <v>9342.72514</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2578.06297</v>
+        <v>11323.68297</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4599.75892</v>
+        <v>21013.77103</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1917.69401</v>
+        <v>13507.27798</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13107.25615</v>
+        <v>30823.58506</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4690.292560000001</v>
+        <v>37767.42692999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12724.29955</v>
+        <v>46928.64569999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12550.91108</v>
+        <v>36419.40589</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>11508.47895</v>
+        <v>37416.1404</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>94681.80703</v>
+        <v>392650.44427</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>37280.23828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>119432.28171</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>187329.117</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.62997</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1.57949</v>
+        <v>20.51517</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2366,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1.60945</v>
+        <v>4.43448</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>536.2719599999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>110.26546</v>
+        <v>69.23132000000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>30.21602</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1.38619</v>
+        <v>90.55499</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>22.69708</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3.37343</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2199.40944</v>
+        <v>2961.8591</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4001.23494</v>
+        <v>5175.554349999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5137.23479</v>
+        <v>8684.715480000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4075.62081</v>
+        <v>9877.75596</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9260.59281</v>
+        <v>13337.07584</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9950.48731</v>
+        <v>17514.18824</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17826.52539</v>
+        <v>21503.76899</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12273.26939</v>
+        <v>14935.15938</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8253.11226</v>
+        <v>13225.78821</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17535.22294</v>
+        <v>22746.8761</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>56438.12239999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>41283.4952</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>55382.777</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>15115.29242</v>
+        <v>19297.27405</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>14958.30865</v>
+        <v>15965.31226</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17167.9976</v>
+        <v>19370.51962</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>21969.01949</v>
+        <v>30814.4132</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>40160.32603</v>
+        <v>57563.12446</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>42618.15745000001</v>
+        <v>67476.74523</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>61927.44362</v>
+        <v>87731.35380000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>69065.69378</v>
+        <v>97489.71881000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>71524.97443</v>
+        <v>117203.28864</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>197688.15475</v>
+        <v>375917.0337</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>285071.54006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>384947.94069</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>276734.98</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>14318.74876</v>
+        <v>18691.19625</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>14038.13792</v>
+        <v>14949.75834</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>15547.37645</v>
+        <v>17974.0247</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>19428.0726</v>
+        <v>28275.52841</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>34986.95094</v>
+        <v>44954.4874</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>37669.76737</v>
+        <v>59521.30029</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>56764.30604</v>
+        <v>81654.62248999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>62864.36594</v>
+        <v>90170.17017</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>66538.01041</v>
+        <v>107577.95196</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>180085.6512</v>
+        <v>215834.65427</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>270433.84038</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>325690.58764</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>195037.135</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>796.5436599999999</v>
+        <v>606.0778</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>920.1707299999999</v>
+        <v>1015.55392</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1620.62115</v>
+        <v>1396.49492</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2540.94689</v>
+        <v>2538.88479</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5173.37509</v>
+        <v>12608.63706</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4948.39008</v>
+        <v>7955.44494</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5163.137580000001</v>
+        <v>6076.731309999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6201.32784</v>
+        <v>7319.54864</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4986.964019999999</v>
+        <v>9625.33668</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>17602.50355</v>
+        <v>160082.37943</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>14637.69968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>59257.35305000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>81697.845</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3521.12373</v>
+        <v>32925.04288</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2589.55936</v>
+        <v>-3393.942379999998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-1829.4816</v>
+        <v>-8727.242689999997</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-6881.02643</v>
+        <v>-24252.3139</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6096.552379999999</v>
+        <v>-32957.25083</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-24049.99063000001</v>
+        <v>-39122.97706</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-31275.3203</v>
+        <v>-75973.17703000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-45108.96274</v>
+        <v>-54036.17151</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-34903.6681</v>
+        <v>-45695.972</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-79679.12765999998</v>
+        <v>-86784.07566</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-275788.22751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-281007.43029</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-170555.368</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14750.28311</v>
+        <v>12936.17669</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>14587.18527</v>
+        <v>13820.22159</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>20296.87882000001</v>
+        <v>21252.72428</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>24640.25045</v>
+        <v>33832.86946</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>39224.18166999999</v>
+        <v>63669.89523</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>63024.35339000001</v>
+        <v>69398.65615000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>70378.35078000001</v>
+        <v>88510.20167000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81738.03840999999</v>
+        <v>93038.38016</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>79825.39542999999</v>
+        <v>111283.69292</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137450.09412</v>
+        <v>164625.52753</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>173532.53754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>351517.94613</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>260134.83</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>350.93681</v>
+        <v>599.22126</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>264.19247</v>
+        <v>249.55014</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>335.64841</v>
+        <v>36.82268</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5.523</v>
+        <v>4.102780000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>263.25096</v>
+        <v>319.42111</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>81.93544</v>
+        <v>125.57287</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>254.07151</v>
+        <v>284.38123</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2089.85884</v>
+        <v>2131.4151</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1918.55588</v>
+        <v>2608.02414</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>197.60638</v>
+        <v>1278.91288</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1005.18621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>808.0938400000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>68.426</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14399.3463</v>
+        <v>12336.95543</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14322.9928</v>
+        <v>13570.67145</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19961.23041</v>
+        <v>21215.9016</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>24634.72745</v>
+        <v>33828.76668</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>38960.93070999999</v>
+        <v>63350.47412000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>62942.41795</v>
+        <v>69273.08328000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>70124.27927</v>
+        <v>88225.82044000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>79648.17957000001</v>
+        <v>90906.96505999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>77906.83955</v>
+        <v>108675.66878</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>137252.48774</v>
+        <v>163346.61465</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>172527.35133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>350709.85229</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>260066.404</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6916.673569999999</v>
+        <v>7818.32538</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8605.573859999999</v>
+        <v>7507.447230000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>31828.73643</v>
+        <v>28858.01177</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11093.40852</v>
+        <v>13673.33297</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>25196.83778</v>
+        <v>25494.46025</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>34572.46718</v>
+        <v>38764.93114</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>47088.37386</v>
+        <v>50730.97326999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>61849.15767</v>
+        <v>71568.92344</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>37807.88827999999</v>
+        <v>54564.81327</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>107252.46056</v>
+        <v>98487.46480000002</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>73177.97972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>147667.56543</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>76927.575</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8.17243</v>
+        <v>21.92754</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>90.98751</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>678.6745900000001</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>526.4696700000001</v>
+        <v>1815.75733</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>471.1850899999999</v>
+        <v>827.66673</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>162.27694</v>
+        <v>0.38488</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>473.58154</v>
+        <v>211.72906</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>16.49838</v>
+        <v>12.42982</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>452.3411</v>
+        <v>5.40167</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>222.21008</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1505.98322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1502.73814</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>152.137</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>167.46874</v>
+        <v>342.82233</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>209.00543</v>
+        <v>216.75021</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>234.52306</v>
+        <v>324.14942</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>344.47817</v>
+        <v>137.55019</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>529.87861</v>
+        <v>381.25004</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>642.2573199999999</v>
+        <v>886.28747</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1063.11602</v>
+        <v>575.91639</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1085.45505</v>
+        <v>2757.32054</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>248.87901</v>
+        <v>2086.89624</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>446.15027</v>
+        <v>688.19979</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3218.50134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3029.71888</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2017.396</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6741.032399999999</v>
+        <v>7453.57551</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8305.58092</v>
+        <v>7290.69702</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>30915.53878</v>
+        <v>28533.86235</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10222.46068</v>
+        <v>11720.02545</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>24195.77408</v>
+        <v>24285.54348</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33767.93292</v>
+        <v>37878.25879</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>45551.67630000001</v>
+        <v>49943.32781999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>60747.20424</v>
+        <v>68799.17307999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>37106.66817</v>
+        <v>52472.51536</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>106584.10021</v>
+        <v>97577.05493000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>68453.49516000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>143135.10841</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>74758.042</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>11354.73327</v>
+        <v>38042.89419</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8571.170769999999</v>
+        <v>2918.83198</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-13361.33921</v>
+        <v>-16332.53018</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6665.8155</v>
+        <v>-4092.77741</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>7930.79151</v>
+        <v>5218.18415</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4401.89558</v>
+        <v>-8489.252050000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-7985.34338</v>
+        <v>-38193.94863000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-25220.082</v>
+        <v>-32566.71478999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>7113.83905</v>
+        <v>11022.90765</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-49481.49410000001</v>
+        <v>-20646.01293</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-175433.66969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-77157.04959000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>12651.887</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3667.35177</v>
+        <v>4525.52071</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3428.53986</v>
+        <v>4709.53592</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4499.72527</v>
+        <v>6651.46677</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4767.53193</v>
+        <v>5142.65608</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7232.38455</v>
+        <v>6940.63447</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>8769.395469999999</v>
+        <v>8780.013420000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>9179.303699999999</v>
+        <v>9546.471039999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9251.462700000002</v>
+        <v>10969.42086</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9561.289699999999</v>
+        <v>11351.0041</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16242.58366</v>
+        <v>24791.26068</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>22341.86912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>25746.02225</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>39484.777</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7687.3815</v>
+        <v>33517.37347999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5142.63091</v>
+        <v>-1790.70394</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-17861.06448</v>
+        <v>-22983.99695</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1898.28357</v>
+        <v>-9235.433489999998</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>698.4069600000001</v>
+        <v>-1722.45032</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-4367.499890000002</v>
+        <v>-17269.26547</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-17164.64708</v>
+        <v>-47740.41967</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-34471.54470000001</v>
+        <v>-43536.13565</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2447.45065</v>
+        <v>-328.0964499999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-65724.07776</v>
+        <v>-45437.27361</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-197775.53881</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-102903.07184</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-26832.89</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>602</v>
+        <v>414</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>699</v>
+        <v>479</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>800</v>
+        <v>554</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>870</v>
+        <v>580</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>972</v>
+        <v>675</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>680</v>
+        <v>453</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>521</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>